--- a/sims/RISC-V Instructions.xlsx
+++ b/sims/RISC-V Instructions.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction Descriptions" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Instruction Set" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Single Cycle RV32I Control Logi" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Mnemonics" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="203">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -454,6 +455,237 @@
   </si>
   <si>
     <t xml:space="preserve">0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mnemonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd, imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = imm &lt;&lt; 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = pc + (imm &lt;&lt; 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = pc + 4     |     pc = pc + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd, rs1, imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = pc + 4     |     pc = rs1 + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs1, rs2, imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (rs1 == rs2)  pc = pc + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (rs1 != rs2)  pc = pc + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (rs1 &lt; rs2)  pc = pc + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed comparison and imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (rs1 &gt;= rs2)  pc = pc + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsigned comparison and Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd, imm(rs1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = (m[rs1 + imm])[7:0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads 8 bits from memory and sign-extends it and Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = (m[rs1 + imm])[15:0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads 16 bits from memory and sign-extends it and Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = m[rs1 + imm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads 32 bits from memory and sign-extends it and Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads 8 bits from memory and Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads 16 bits from memory and Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs2, imm(rs1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m[rs1 + imm] = rs2[7:0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store 8-bits from lower bits of rs2 into memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m[rs1 + imm] = rs2[15:0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store 16-bits from lower bits of rs2 into memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m[rs1 + imm] = rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store rs2 into memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If (rs1 &lt; imm) rd = 1 else rd = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsigned comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 ^ imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 | imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 &amp; imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed imm (Lower 5 bits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 &lt;&lt; imm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Unsigned imm Sign extend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Lower 5 bits)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 &gt;&gt; imm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Unsigned imm Unsigned shift </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Lower 5 bits)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Unsigned imm Signed shift </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Lower 5 bits)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">rd, rs1, rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 + rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 – rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overflow is ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 &lt;&lt; rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower 5 bits of rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If (rs1 &lt; rs2) rd = 1 else rd = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 ^ rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 &gt;&gt; rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 | rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 &amp; rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudo Mnemonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
   </si>
 </sst>
 </file>
@@ -464,7 +696,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -529,8 +761,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +803,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDAE3F3"/>
         <bgColor rgb="FFDEEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -637,7 +881,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -766,6 +1010,38 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,7 +1088,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFE2F0D9"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -846,7 +1122,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1099,8 +1375,8 @@
   </sheetPr>
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1493,7 +1769,21 @@
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+    </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -5246,7 +5536,7 @@
       <selection pane="topLeft" activeCell="L40" activeCellId="0" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.11"/>
@@ -6692,6 +6982,681 @@
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:E69"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="47.4"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" s="38" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
+      <c r="B3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+      <c r="B5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+    </row>
+    <row r="41" s="37" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="32"/>
+    </row>
+    <row r="42" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0"/>
+      <c r="B43" s="37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0"/>
+    </row>
+    <row r="45" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0"/>
+    </row>
+    <row r="46" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0"/>
+    </row>
+    <row r="47" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0"/>
+    </row>
+    <row r="48" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0"/>
+    </row>
+    <row r="49" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+    </row>
+    <row r="50" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+    </row>
+    <row r="51" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+    </row>
+    <row r="52" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+    </row>
+    <row r="53" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+    </row>
+    <row r="54" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+    </row>
+    <row r="55" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0"/>
+    </row>
+    <row r="56" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0"/>
+    </row>
+    <row r="57" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
+    </row>
+    <row r="58" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
+    </row>
+    <row r="59" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
+    </row>
+    <row r="60" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0"/>
+    </row>
+    <row r="61" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0"/>
+    </row>
+    <row r="62" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0"/>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+    </row>
+    <row r="63" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B41:C41"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/sims/RISC-V Instructions.xlsx
+++ b/sims/RISC-V Instructions.xlsx
@@ -10,8 +10,9 @@
   <sheets>
     <sheet name="Instruction Descriptions" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Instruction Set" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Single Cycle RV32I Control Logi" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Mnemonics" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Mnemonics" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="BEAN-1 Control Logic" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Single Cycle RV32I Control Logi" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="220">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -343,349 +344,346 @@
     <t xml:space="preserve">CSRRCI</t>
   </si>
   <si>
+    <t xml:space="preserve">Mnemonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd, imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = imm &lt;&lt; 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = pc + (imm &lt;&lt; 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = pc + 4     |     pc = pc + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd, rs1, imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = pc + 4     |     pc = rs1 + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs1, rs2, imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (rs1 == rs2)  pc = pc + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (rs1 != rs2)  pc = pc + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (rs1 &lt; rs2)  pc = pc + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed comparison and imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (rs1 &gt;= rs2)  pc = pc + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsigned comparison and Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd, imm(rs1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = (m[rs1 + imm])[7:0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads 8 bits from memory and sign-extends it and Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = (m[rs1 + imm])[15:0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads 16 bits from memory and sign-extends it and Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = m[rs1 + imm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads 32 bits from memory and sign-extends it and Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads 8 bits from memory and Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads 16 bits from memory and Signed imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs2, imm(rs1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m[rs1 + imm] = rs2[7:0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store 8-bits from lower bits of rs2 into memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m[rs1 + imm] = rs2[15:0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store 16-bits from lower bits of rs2 into memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m[rs1 + imm] = rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store rs2 into memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 + imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If (rs1 &lt; imm) rd = 1 else rd = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsigned comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 ^ imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 | imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 &amp; imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed imm (Lower 5 bits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 &lt;&lt; imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsigned imm Sign extend (Lower 5 bits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 &gt;&gt; imm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsigned imm Unsigned shift (Lower 5 bits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsigned imm Signed shift (Lower 5 bits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd, rs1, rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 + rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 – rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overflow is ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 &lt;&lt; rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower 5 bits of rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If (rs1 &lt; rs2) rd = 1 else rd = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 ^ rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 &gt;&gt; rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 | rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd = rs1 &amp; rs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudo Mnemonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Control</t>
   </si>
   <si>
     <t xml:space="preserve">Size</t>
   </si>
   <si>
+    <t xml:space="preserve">reg_WE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs1_SEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs2_SEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg_SEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pc_SEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imm_SEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALU_MODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addrs_SEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pc_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instr_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALU_mem_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mem_in_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mem_WE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mem_MODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001</t>
+  </si>
+  <si>
     <t xml:space="preserve">dmem mode</t>
   </si>
   <si>
-    <t xml:space="preserve">XXX</t>
-  </si>
-  <si>
     <t xml:space="preserve">dmem we</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">regWE</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">rs1sel</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
     <t xml:space="preserve">rs2sel</t>
   </si>
   <si>
     <t xml:space="preserve">regsel</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX</t>
-  </si>
-  <si>
     <t xml:space="preserve">PCsel</t>
   </si>
   <si>
-    <t xml:space="preserve">00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTRL</t>
-  </si>
-  <si>
     <t xml:space="preserve">ImmSel</t>
   </si>
   <si>
-    <t xml:space="preserve">000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALUControl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mnemonic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd, imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = imm &lt;&lt; 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signed imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = pc + (imm &lt;&lt; 12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = pc + 4     |     pc = pc + imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd, rs1, imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = pc + 4     |     pc = rs1 + imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rs1, rs2, imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (rs1 == rs2)  pc = pc + imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (rs1 != rs2)  pc = pc + imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (rs1 &lt; rs2)  pc = pc + imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signed comparison and imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (rs1 &gt;= rs2)  pc = pc + imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsigned comparison and Signed imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd, imm(rs1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = (m[rs1 + imm])[7:0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loads 8 bits from memory and sign-extends it and Signed imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = (m[rs1 + imm])[15:0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loads 16 bits from memory and sign-extends it and Signed imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = m[rs1 + imm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loads 32 bits from memory and sign-extends it and Signed imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loads 8 bits from memory and Signed imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loads 16 bits from memory and Signed imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rs2, imm(rs1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m[rs1 + imm] = rs2[7:0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store 8-bits from lower bits of rs2 into memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m[rs1 + imm] = rs2[15:0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store 16-bits from lower bits of rs2 into memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m[rs1 + imm] = rs2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store rs2 into memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 + imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If (rs1 &lt; imm) rd = 1 else rd = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signed comparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsigned comparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 ^ imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 | imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 &amp; imm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signed imm (Lower 5 bits)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 &lt;&lt; imm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Unsigned imm Sign extend </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Lower 5 bits)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 &gt;&gt; imm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Unsigned imm Unsigned shift </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Lower 5 bits)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Unsigned imm Signed shift </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Lower 5 bits)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">rd, rs1, rs2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 + rs2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 – rs2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overflow is ignored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 &lt;&lt; rs2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower 5 bits of rs2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If (rs1 &lt; rs2) rd = 1 else rd = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 ^ rs2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 &gt;&gt; rs2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 | rs2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd = rs1 &amp; rs2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudo Mnemonic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV</t>
   </si>
 </sst>
 </file>
@@ -696,7 +694,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -760,12 +758,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -881,7 +873,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -978,39 +970,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1022,7 +982,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1038,8 +998,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1110,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5530,10 +5518,3178 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A2:E69"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="47.4"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" s="30" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
+      <c r="B3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+      <c r="B5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+    </row>
+    <row r="41" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="24"/>
+    </row>
+    <row r="42" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0"/>
+      <c r="B43" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0"/>
+    </row>
+    <row r="45" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0"/>
+    </row>
+    <row r="46" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0"/>
+    </row>
+    <row r="47" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0"/>
+    </row>
+    <row r="48" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0"/>
+    </row>
+    <row r="49" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+    </row>
+    <row r="50" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+    </row>
+    <row r="51" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+    </row>
+    <row r="52" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+    </row>
+    <row r="53" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+    </row>
+    <row r="54" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+    </row>
+    <row r="55" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0"/>
+    </row>
+    <row r="56" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0"/>
+    </row>
+    <row r="57" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
+    </row>
+    <row r="58" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
+    </row>
+    <row r="59" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
+    </row>
+    <row r="60" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0"/>
+    </row>
+    <row r="61" s="29" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0"/>
+    </row>
+    <row r="62" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0"/>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+    </row>
+    <row r="63" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B41:C41"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:AH75"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T26" activeCellId="0" sqref="T26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.89"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="W11" s="31"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X20" s="33"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W22" s="8"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="36"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="34"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X24" s="33"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="34"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="34"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q26" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="34"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="N27" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O27" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="P27" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q27" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="34"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="L28" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M28" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="N28" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O28" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="P28" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q28" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="34"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="J29" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="K29" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="N29" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q29" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="34"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="O30" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="P30" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q30" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="34"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="N31" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="P31" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q31" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="34"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32" s="38" t="n">
+        <v>1101</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="N32" s="8" t="n">
+        <v>1010</v>
+      </c>
+      <c r="O32" s="8" t="n">
+        <v>1100</v>
+      </c>
+      <c r="P32" s="8" t="n">
+        <v>1001</v>
+      </c>
+      <c r="Q32" s="8" t="n">
+        <v>1011</v>
+      </c>
+      <c r="W32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L33" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M33" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O33" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="P33" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q33" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="W33" s="8"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L34" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="N34" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O34" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="P34" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q34" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="34"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L35" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="N35" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="P35" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q35" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="34"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="L36" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="N36" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="P36" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q36" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="34"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="34"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="O38" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="34"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="N39" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="O39" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="P39" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q39" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="34"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="L40" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="N40" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="O40" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="P40" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q40" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="34"/>
+      <c r="AG40" s="34"/>
+      <c r="AH40" s="34"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L41" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="N41" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="O41" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="P41" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q41" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="34"/>
+      <c r="AG41" s="34"/>
+      <c r="AH41" s="34"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K42" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="L42" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="N42" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="O42" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="P42" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q42" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
+      <c r="AG42" s="34"/>
+      <c r="AH42" s="34"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="M43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="N43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="O43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="P43" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="W43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="L44" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="N44" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="O44" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="P44" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q44" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="W44" s="8"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="K45" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="L45" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="M45" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="N45" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="O45" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="P45" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q45" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K46" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="M46" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="N46" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="O46" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="P46" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q46" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="34"/>
+      <c r="AE46" s="34"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L47" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="M47" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="N47" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="O47" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="P47" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q47" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="34"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="N48" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="O48" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="P48" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q48" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="I49" s="34" t="n">
+        <v>101</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="K49" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="L49" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="M49" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="N49" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="O49" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="P49" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q49" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X50" s="33"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="O51" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P51" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q51" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="K52" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L52" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="M52" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="N52" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="O52" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="P52" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q52" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="34"/>
+      <c r="AE52" s="34"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G53" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="L53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="M53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="N53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="O53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="P53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="34"/>
+      <c r="AD53" s="34"/>
+      <c r="AE53" s="34"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="K54" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L54" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="M54" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="N54" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="O54" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="P54" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q54" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="K55" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="L55" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="M55" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="N55" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="O55" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="P55" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q55" s="34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="L56" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="M56" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="N56" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="O56" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="P56" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q56" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G57" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J57" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="K57" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="L57" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="M57" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="N57" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="O57" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="P57" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q57" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G58" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="K58" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="L58" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="N58" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="O58" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="P58" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q58" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I59" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K59" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L59" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M59" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="N59" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O59" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="P59" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q59" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G60" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I60" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J60" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K60" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L60" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M60" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="N60" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O60" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="P60" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q60" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="G61" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J61" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K61" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="L61" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="M61" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="N61" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="O61" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="P61" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q61" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I62" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="J62" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="K62" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="L62" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="M62" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="N62" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="O62" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="P62" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q62" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="K64" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="L64" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="M64" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="N64" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I65" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="K65" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L65" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="M65" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="N65" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G66" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G67" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G68" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I68" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J68" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="K68" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="L68" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="M68" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="N68" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G69" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J69" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K69" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="L69" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="M69" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="N69" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F70" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G70" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I70" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="J70" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="K70" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="L70" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="M70" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="N70" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G71" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="J71" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="K71" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L71" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="M71" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="N71" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F72" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G72" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I72" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J72" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K72" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L72" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M72" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="N72" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F73" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G73" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I73" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J73" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K73" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L73" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M73" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="N73" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="G74" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I74" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J74" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K74" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="L74" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="M74" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="N74" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G75" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I75" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="J75" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="K75" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="L75" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="M75" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="N75" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L40" activeCellId="0" sqref="L40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O19" activeCellId="0" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5554,371 +8710,371 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="B3" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="28" t="n">
+        <v>211</v>
+      </c>
+      <c r="C4" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>109</v>
+      <c r="D4" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>109</v>
+        <v>176</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>111</v>
+        <v>212</v>
+      </c>
+      <c r="C5" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>111</v>
+      <c r="G5" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>113</v>
+        <v>213</v>
+      </c>
+      <c r="C6" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>111</v>
+      <c r="G6" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>113</v>
+        <v>214</v>
+      </c>
+      <c r="C7" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>111</v>
+        <v>170</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>113</v>
+        <v>215</v>
+      </c>
+      <c r="C8" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>111</v>
+        <v>170</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="28" t="n">
+        <v>216</v>
+      </c>
+      <c r="C9" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>119</v>
+      <c r="D9" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>192</v>
       </c>
       <c r="F9" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>121</v>
+      <c r="G9" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="28" t="n">
+        <v>217</v>
+      </c>
+      <c r="C10" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>123</v>
+      <c r="D10" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>194</v>
       </c>
       <c r="F10" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>124</v>
+      <c r="G10" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="28" t="n">
+        <v>218</v>
+      </c>
+      <c r="C11" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>126</v>
+      <c r="D11" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>188</v>
       </c>
       <c r="F11" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>128</v>
+      <c r="G11" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="28" t="n">
+        <v>219</v>
+      </c>
+      <c r="C12" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>131</v>
+      <c r="D12" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>198</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="30" t="n">
+        <v>178</v>
+      </c>
+      <c r="G12" s="38" t="n">
         <v>1101</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>132</v>
+      <c r="H12" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="J12" s="8" t="n">
         <v>1010</v>
@@ -5935,377 +9091,377 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="8"/>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="28" t="n">
+        <v>211</v>
+      </c>
+      <c r="C15" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="31" t="n">
+      <c r="D15" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="34" t="n">
         <v>101</v>
       </c>
-      <c r="F15" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>109</v>
+      <c r="F15" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>111</v>
+        <v>212</v>
+      </c>
+      <c r="C16" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>113</v>
+        <v>213</v>
+      </c>
+      <c r="C17" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="L18" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>111</v>
+        <v>214</v>
+      </c>
+      <c r="C18" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="K19" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="31" t="s">
-        <v>113</v>
+        <v>215</v>
+      </c>
+      <c r="C19" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="28" t="n">
+        <v>216</v>
+      </c>
+      <c r="C20" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="31" t="s">
-        <v>119</v>
+      <c r="D20" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="28" t="n">
+        <v>217</v>
+      </c>
+      <c r="C21" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" s="31" t="s">
-        <v>123</v>
+      <c r="D21" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="28" t="n">
+        <v>218</v>
+      </c>
+      <c r="C22" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="M22" s="31" t="s">
-        <v>127</v>
+      <c r="D22" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="28" t="n">
+        <v>219</v>
+      </c>
+      <c r="C23" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="M23" s="31" t="s">
-        <v>135</v>
+      <c r="D23" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6313,377 +9469,377 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="28" t="n">
+        <v>211</v>
+      </c>
+      <c r="C26" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="D26" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="L26" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>109</v>
+      <c r="D26" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="M27" s="31" t="s">
-        <v>111</v>
+        <v>212</v>
+      </c>
+      <c r="C27" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="M28" s="31" t="s">
-        <v>113</v>
+        <v>213</v>
+      </c>
+      <c r="C28" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="M29" s="31" t="s">
-        <v>111</v>
+        <v>214</v>
+      </c>
+      <c r="C29" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="K30" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="L30" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="M30" s="31" t="s">
-        <v>111</v>
+        <v>215</v>
+      </c>
+      <c r="C30" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="28" t="n">
+        <v>216</v>
+      </c>
+      <c r="C31" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="D31" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="K31" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="L31" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="M31" s="31" t="s">
-        <v>119</v>
+      <c r="D31" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="28" t="n">
+        <v>217</v>
+      </c>
+      <c r="C32" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="K32" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L32" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="M32" s="31" t="s">
-        <v>123</v>
+      <c r="D32" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="28" t="n">
+        <v>218</v>
+      </c>
+      <c r="C33" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="D33" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="K33" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="L33" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="M33" s="31" t="s">
-        <v>109</v>
+      <c r="D33" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="L33" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="28" t="n">
+        <v>219</v>
+      </c>
+      <c r="C34" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="D34" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="L34" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="M34" s="31" t="s">
-        <v>140</v>
+      <c r="D34" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="L34" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6691,287 +9847,287 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="8"/>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="27" t="s">
+      <c r="I36" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J36" s="27" t="s">
+      <c r="J36" s="36" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="28" t="n">
+        <v>211</v>
+      </c>
+      <c r="C37" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="D37" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>109</v>
+      <c r="D37" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="J38" s="31" t="s">
-        <v>111</v>
+        <v>212</v>
+      </c>
+      <c r="C38" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H39" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="J39" s="31" t="s">
-        <v>113</v>
+        <v>213</v>
+      </c>
+      <c r="C39" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="31" t="n">
+        <v>214</v>
+      </c>
+      <c r="C40" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="31" t="n">
+        <v>215</v>
+      </c>
+      <c r="C41" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="28" t="n">
+        <v>216</v>
+      </c>
+      <c r="C42" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="H42" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="J42" s="31" t="s">
-        <v>119</v>
+      <c r="D42" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="28" t="n">
+        <v>217</v>
+      </c>
+      <c r="C43" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="J43" s="31" t="s">
-        <v>123</v>
+      <c r="D43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="28" t="n">
+        <v>218</v>
+      </c>
+      <c r="C44" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="D44" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="I44" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="J44" s="31" t="s">
-        <v>109</v>
+      <c r="D44" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="28" t="n">
+        <v>219</v>
+      </c>
+      <c r="C45" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="D45" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="J45" s="31" t="s">
-        <v>139</v>
+      <c r="D45" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6982,681 +10138,6 @@
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:E69"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="47.4"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" s="38" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-      <c r="B38" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-      <c r="B39" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-    </row>
-    <row r="41" s="37" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-      <c r="B41" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="C41" s="32"/>
-    </row>
-    <row r="42" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-      <c r="B43" s="37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-    </row>
-    <row r="45" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-    </row>
-    <row r="46" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-    </row>
-    <row r="47" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
-    </row>
-    <row r="48" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0"/>
-    </row>
-    <row r="49" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0"/>
-    </row>
-    <row r="50" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0"/>
-    </row>
-    <row r="51" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-    </row>
-    <row r="52" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-    </row>
-    <row r="53" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-    </row>
-    <row r="54" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-    </row>
-    <row r="55" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-    </row>
-    <row r="56" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-    </row>
-    <row r="57" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
-    </row>
-    <row r="58" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-    </row>
-    <row r="59" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0"/>
-    </row>
-    <row r="60" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0"/>
-    </row>
-    <row r="61" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0"/>
-    </row>
-    <row r="62" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0"/>
-      <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-    </row>
-    <row r="63" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B41:C41"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
